--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_6_38.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_6_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3804487.426301588</v>
+        <v>3801924.785576463</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>430763.7823717227</v>
+        <v>430763.7823717229</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>89.30279568673414</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>313.2070399508087</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -865,22 +865,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>168.7756050755991</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>155.2114886365811</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>186.815174149556</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>271.439525616678</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1057,19 +1057,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>59.66385641544551</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>50.05665370612839</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>83.40252578334265</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>270.7773459850746</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>59.66385641544537</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>155.4526127311943</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1382,10 +1382,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8432760127577</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H11" t="n">
-        <v>283.5630920045444</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.61259060081964</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T11" t="n">
         <v>199.1970568374742</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>41.12752302841054</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>105.3798824585327</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1664,7 +1664,7 @@
         <v>250.9088959876463</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701356</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="15">
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>11.29378580560392</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>42.15728905474988</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
         <v>217.4819944627618</v>
@@ -1856,10 +1856,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127566</v>
       </c>
       <c r="H17" t="n">
-        <v>283.5630920045434</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>81.37259901119292</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>64.44601915223836</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>122.9320997728195</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.4539897919539</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S22" t="n">
-        <v>172.5112693098274</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T22" t="n">
         <v>217.4819944627618</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>36.16046479743317</v>
       </c>
       <c r="C25" t="n">
-        <v>105.3798824585327</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>84.61259060081882</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T26" t="n">
         <v>199.1970568374742</v>
@@ -2716,22 +2716,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>91.23885045891228</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>100.6694880849484</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>23.94516103140406</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,7 +2959,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S31" t="n">
         <v>181.338488358459</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>160.6482917536609</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>114.2911283575741</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>105.3798824585327</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3202,10 +3202,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710064</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T35" t="n">
         <v>199.1970568374742</v>
@@ -3360,7 +3360,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H36" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>125.6497826179184</v>
       </c>
       <c r="F37" t="n">
-        <v>64.44601915223832</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S37" t="n">
         <v>181.338488358459</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710073</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127566</v>
       </c>
       <c r="H38" t="n">
         <v>283.5630920045443</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T38" t="n">
         <v>199.1970568374742</v>
@@ -3597,7 +3597,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H39" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5420528771669</v>
+        <v>142.5763624768729</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S40" t="n">
         <v>181.338488358459</v>
@@ -3715,7 +3715,7 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U40" t="n">
-        <v>226.0232811297861</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8432760127574</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H41" t="n">
         <v>283.5630920045443</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T41" t="n">
         <v>199.1970568374742</v>
@@ -3834,7 +3834,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H42" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>102.1854574632516</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S43" t="n">
-        <v>112.5324656411147</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T43" t="n">
         <v>217.4819944627618</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T44" t="n">
         <v>199.1970568374742</v>
@@ -4071,7 +4071,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H45" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>91.23885045891222</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S46" t="n">
         <v>181.338488358459</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>72.73162759594746</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>940.9219833362306</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>940.9219833362306</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>940.9219833362306</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>555.1337307379863</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>144.1478259483787</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2057.295728843236</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1704.527073573122</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1331.061315312042</v>
+        <v>1346.11282670441</v>
       </c>
       <c r="Y2" t="n">
-        <v>940.9219833362306</v>
+        <v>1346.11282670441</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4492,40 +4492,40 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>343.360151857325</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V4" t="n">
-        <v>571.3497027553424</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>281.9325327183818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
         <v>53.94298182036445</v>
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2247.308246834948</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="C5" t="n">
-        <v>1878.345729894537</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="D5" t="n">
-        <v>1520.080031287786</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="E5" t="n">
-        <v>1134.291778689542</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F5" t="n">
-        <v>723.3058738999346</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4595,22 +4595,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>2247.308246834948</v>
+        <v>1937.999789494232</v>
       </c>
       <c r="X5" t="n">
-        <v>2247.308246834948</v>
+        <v>1564.534031233152</v>
       </c>
       <c r="Y5" t="n">
-        <v>2247.308246834948</v>
+        <v>1174.39469925734</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4620,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>578.0123447940987</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>430.0992512117056</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>283.2093037137952</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>114.2095034521276</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>529.4200491697815</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>529.4200491697815</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>529.4200491697815</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1053.350203651864</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>684.3876867114525</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>684.3876867114525</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>298.5994341132082</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>291.6539333640048</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4832,22 +4832,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>1443.489535627676</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>1053.350203651864</v>
       </c>
     </row>
     <row r="9">
@@ -4890,7 +4890,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>571.1061430638139</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C11" t="n">
         <v>1949.298676890959</v>
@@ -5027,64 +5027,64 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F11" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G11" t="n">
-        <v>380.275713812763</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H11" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I11" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J11" t="n">
-        <v>373.3442236507201</v>
+        <v>424.1437450015196</v>
       </c>
       <c r="K11" t="n">
-        <v>842.974607438402</v>
+        <v>893.7741287892015</v>
       </c>
       <c r="L11" t="n">
-        <v>1462.494387944177</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M11" t="n">
-        <v>2183.498949883215</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N11" t="n">
-        <v>2920.783927800321</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O11" t="n">
-        <v>3603.64596425946</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P11" t="n">
-        <v>4202.751434297607</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q11" t="n">
-        <v>4566.333620403614</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R11" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T11" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U11" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V11" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W11" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X11" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5112,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H12" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I12" t="n">
-        <v>93.84834815160704</v>
+        <v>94.88738072612962</v>
       </c>
       <c r="J12" t="n">
-        <v>93.84834815160704</v>
+        <v>242.5353624779756</v>
       </c>
       <c r="K12" t="n">
-        <v>424.3570907149658</v>
+        <v>573.0441050413344</v>
       </c>
       <c r="L12" t="n">
-        <v>915.0894235587172</v>
+        <v>1063.776437885086</v>
       </c>
       <c r="M12" t="n">
-        <v>1507.107777810845</v>
+        <v>1655.794792137213</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.203741210181</v>
+        <v>2277.890755536549</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.812354695766</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.812354695766</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.812354695766</v>
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>495.0957149476001</v>
+        <v>635.2012272238898</v>
       </c>
       <c r="C13" t="n">
-        <v>495.0957149476001</v>
+        <v>466.2650442959829</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6513892319105</v>
+        <v>466.2650442959829</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7382956495174</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="F13" t="n">
-        <v>93.84834815160704</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="G13" t="n">
-        <v>93.84834815160704</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H13" t="n">
-        <v>93.84834815160704</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I13" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J13" t="n">
-        <v>172.830471041161</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K13" t="n">
-        <v>432.4591980117247</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L13" t="n">
         <v>820.2210160948589</v>
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C14" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D14" t="n">
         <v>1591.032978284208</v>
@@ -5264,10 +5264,10 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F14" t="n">
-        <v>794.2588208963564</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G14" t="n">
-        <v>380.2757138127628</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H14" t="n">
         <v>93.84834815160703</v>
@@ -5276,13 +5276,13 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J14" t="n">
-        <v>424.1437450015196</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K14" t="n">
-        <v>893.7741287892015</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L14" t="n">
-        <v>1513.293909294976</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M14" t="n">
         <v>2234.298471234014</v>
@@ -5303,25 +5303,25 @@
         <v>4692.417407580351</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T14" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U14" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V14" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W14" t="n">
         <v>3468.466124132383</v>
       </c>
       <c r="X14" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="15">
@@ -5355,22 +5355,22 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J15" t="n">
-        <v>93.84834815160703</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K15" t="n">
-        <v>302.0892292003568</v>
+        <v>241.496329903453</v>
       </c>
       <c r="L15" t="n">
-        <v>792.8215620441082</v>
+        <v>373.2380436180322</v>
       </c>
       <c r="M15" t="n">
-        <v>1384.839916296236</v>
+        <v>965.25639787016</v>
       </c>
       <c r="N15" t="n">
-        <v>2006.935879695572</v>
+        <v>1587.352361269496</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.812354695766</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P15" t="n">
         <v>2553.812354695766</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>635.6827849513467</v>
+        <v>562.9550599890988</v>
       </c>
       <c r="C16" t="n">
-        <v>635.6827849513467</v>
+        <v>394.0188770611919</v>
       </c>
       <c r="D16" t="n">
-        <v>485.5661455390109</v>
+        <v>394.0188770611919</v>
       </c>
       <c r="E16" t="n">
-        <v>485.5661455390109</v>
+        <v>382.6110126110869</v>
       </c>
       <c r="F16" t="n">
-        <v>485.5661455390109</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="G16" t="n">
-        <v>318.3519507135898</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H16" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I16" t="n">
         <v>93.84834815160703</v>
@@ -5458,28 +5458,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R16" t="n">
-        <v>2361.553154294196</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S16" t="n">
-        <v>2318.970034036873</v>
+        <v>2246.242309074625</v>
       </c>
       <c r="T16" t="n">
-        <v>2099.291251751255</v>
+        <v>2026.563526789007</v>
       </c>
       <c r="U16" t="n">
-        <v>1810.215038065981</v>
+        <v>1737.487313103734</v>
       </c>
       <c r="V16" t="n">
-        <v>1555.530549860094</v>
+        <v>1482.802824897847</v>
       </c>
       <c r="W16" t="n">
-        <v>1266.113379823134</v>
+        <v>1193.385654860886</v>
       </c>
       <c r="X16" t="n">
-        <v>1038.123828925116</v>
+        <v>965.3961039628687</v>
       </c>
       <c r="Y16" t="n">
-        <v>817.3312497815864</v>
+        <v>744.6035248193385</v>
       </c>
     </row>
     <row r="17">
@@ -5504,7 +5504,7 @@
         <v>794.2588208963555</v>
       </c>
       <c r="G17" t="n">
-        <v>380.2757138127619</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H17" t="n">
         <v>93.84834815160703</v>
@@ -5528,7 +5528,7 @@
         <v>2920.783927800321</v>
       </c>
       <c r="O17" t="n">
-        <v>3603.64596425946</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P17" t="n">
         <v>4202.751434297606</v>
@@ -5595,25 +5595,25 @@
         <v>241.496329903453</v>
       </c>
       <c r="K18" t="n">
-        <v>572.0050724668117</v>
+        <v>241.496329903453</v>
       </c>
       <c r="L18" t="n">
-        <v>1062.737405310563</v>
+        <v>654.2270403990691</v>
       </c>
       <c r="M18" t="n">
-        <v>1654.755759562691</v>
+        <v>1246.245394651197</v>
       </c>
       <c r="N18" t="n">
-        <v>2134.22883626969</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="O18" t="n">
-        <v>2134.22883626969</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.812354695766</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R18" t="n">
         <v>2553.812354695766</v>
@@ -5653,16 +5653,16 @@
         <v>326.1595320196932</v>
       </c>
       <c r="D19" t="n">
-        <v>326.1595320196932</v>
+        <v>176.0428926073575</v>
       </c>
       <c r="E19" t="n">
-        <v>326.1595320196932</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="F19" t="n">
-        <v>326.1595320196932</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G19" t="n">
-        <v>158.945337194272</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H19" t="n">
         <v>93.84834815160703</v>
@@ -5765,13 +5765,13 @@
         <v>2920.783927800321</v>
       </c>
       <c r="O20" t="n">
-        <v>3603.64596425946</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P20" t="n">
-        <v>4151.951912946808</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q20" t="n">
-        <v>4515.534099052815</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R20" t="n">
         <v>4692.417407580351</v>
@@ -5826,31 +5826,31 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I21" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612962</v>
       </c>
       <c r="J21" t="n">
-        <v>93.84834815160703</v>
+        <v>238.7141959544597</v>
       </c>
       <c r="K21" t="n">
-        <v>93.84834815160703</v>
+        <v>238.7141959544597</v>
       </c>
       <c r="L21" t="n">
-        <v>584.5806809953584</v>
+        <v>729.446528798211</v>
       </c>
       <c r="M21" t="n">
-        <v>1176.599035247486</v>
+        <v>1321.464883050339</v>
       </c>
       <c r="N21" t="n">
-        <v>1798.694998646823</v>
+        <v>1321.464883050339</v>
       </c>
       <c r="O21" t="n">
-        <v>2345.571473647017</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.812354695766</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R21" t="n">
         <v>2553.812354695766</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.8714428665047</v>
+        <v>676.7441797778398</v>
       </c>
       <c r="C22" t="n">
-        <v>402.9352599385978</v>
+        <v>507.8079968499329</v>
       </c>
       <c r="D22" t="n">
-        <v>402.9352599385978</v>
+        <v>383.6341586955697</v>
       </c>
       <c r="E22" t="n">
-        <v>402.9352599385978</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="F22" t="n">
-        <v>402.9352599385978</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="G22" t="n">
         <v>235.7210651131766</v>
@@ -5932,28 +5932,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R22" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S22" t="n">
-        <v>2255.15869195203</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.479909666413</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.403695981139</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.719207775252</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.302037738292</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X22" t="n">
-        <v>974.3124868402746</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.5199076967444</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="23">
@@ -5975,19 +5975,19 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F23" t="n">
-        <v>794.2588208963564</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G23" t="n">
-        <v>380.2757138127628</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H23" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="I23" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J23" t="n">
-        <v>373.3442236507201</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K23" t="n">
         <v>842.974607438402</v>
@@ -5996,25 +5996,25 @@
         <v>1462.494387944177</v>
       </c>
       <c r="M23" t="n">
-        <v>2183.498949883215</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N23" t="n">
-        <v>2920.783927800321</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O23" t="n">
-        <v>3603.64596425946</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P23" t="n">
-        <v>4151.951912946808</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q23" t="n">
-        <v>4515.534099052815</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R23" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T23" t="n">
         <v>4405.740996026519</v>
@@ -6060,34 +6060,34 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H24" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I24" t="n">
-        <v>93.84834815160704</v>
+        <v>94.88738072612962</v>
       </c>
       <c r="J24" t="n">
-        <v>241.496329903453</v>
+        <v>94.88738072612962</v>
       </c>
       <c r="K24" t="n">
-        <v>572.0050724668118</v>
+        <v>425.3961232894884</v>
       </c>
       <c r="L24" t="n">
-        <v>1062.737405310563</v>
+        <v>916.1284561332398</v>
       </c>
       <c r="M24" t="n">
-        <v>1654.755759562691</v>
+        <v>1321.464883050339</v>
       </c>
       <c r="N24" t="n">
-        <v>2276.851722962027</v>
+        <v>1321.464883050339</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.812354695766</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.812354695766</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R24" t="n">
         <v>2553.812354695766</v>
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>495.0957149476001</v>
+        <v>640.2184577602305</v>
       </c>
       <c r="C25" t="n">
-        <v>388.6513892319105</v>
+        <v>471.2822748323237</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6513892319105</v>
+        <v>471.2822748323237</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7382956495174</v>
+        <v>323.3691812499305</v>
       </c>
       <c r="F25" t="n">
-        <v>93.84834815160704</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="G25" t="n">
-        <v>93.84834815160704</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="H25" t="n">
-        <v>93.84834815160704</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I25" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J25" t="n">
-        <v>172.830471041161</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K25" t="n">
-        <v>432.4591980117247</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L25" t="n">
         <v>820.2210160948589</v>
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C26" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D26" t="n">
         <v>1591.032978284208</v>
@@ -6212,43 +6212,43 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F26" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G26" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127628</v>
       </c>
       <c r="H26" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="I26" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J26" t="n">
-        <v>373.34422365072</v>
+        <v>424.1437450015205</v>
       </c>
       <c r="K26" t="n">
-        <v>842.974607438402</v>
+        <v>893.7741287892025</v>
       </c>
       <c r="L26" t="n">
-        <v>1462.494387944177</v>
+        <v>1513.293909294977</v>
       </c>
       <c r="M26" t="n">
-        <v>2183.498949883215</v>
+        <v>2234.298471234015</v>
       </c>
       <c r="N26" t="n">
-        <v>2920.783927800321</v>
+        <v>2971.583449151121</v>
       </c>
       <c r="O26" t="n">
-        <v>3654.445485610258</v>
+        <v>3654.445485610259</v>
       </c>
       <c r="P26" t="n">
-        <v>4202.751434297606</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q26" t="n">
-        <v>4566.333620403613</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R26" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S26" t="n">
         <v>4606.950144347201</v>
@@ -6257,19 +6257,19 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U26" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V26" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W26" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X26" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H27" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I27" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612963</v>
       </c>
       <c r="J27" t="n">
-        <v>241.496329903453</v>
+        <v>242.5353624779756</v>
       </c>
       <c r="K27" t="n">
-        <v>572.0050724668117</v>
+        <v>242.5353624779756</v>
       </c>
       <c r="L27" t="n">
-        <v>1062.737405310563</v>
+        <v>733.2676953217269</v>
       </c>
       <c r="M27" t="n">
-        <v>1654.755759562691</v>
+        <v>1325.286049573855</v>
       </c>
       <c r="N27" t="n">
-        <v>2276.851722962027</v>
+        <v>1947.382012973191</v>
       </c>
       <c r="O27" t="n">
-        <v>2276.851722962027</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="P27" t="n">
-        <v>2323.251080710519</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R27" t="n">
         <v>2553.812354695766</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>495.0957149476001</v>
+        <v>621.3989142446594</v>
       </c>
       <c r="C28" t="n">
-        <v>495.0957149476001</v>
+        <v>621.3989142446594</v>
       </c>
       <c r="D28" t="n">
-        <v>495.0957149476001</v>
+        <v>471.2822748323237</v>
       </c>
       <c r="E28" t="n">
-        <v>495.0957149476001</v>
+        <v>323.3691812499305</v>
       </c>
       <c r="F28" t="n">
-        <v>402.9352599385978</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="G28" t="n">
-        <v>235.7210651131766</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="H28" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I28" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J28" t="n">
-        <v>172.8304710411609</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K28" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L28" t="n">
         <v>820.2210160948589</v>
@@ -6424,10 +6424,10 @@
         <v>1125.526309819387</v>
       </c>
       <c r="X28" t="n">
-        <v>897.5367589213699</v>
+        <v>1023.839958218429</v>
       </c>
       <c r="Y28" t="n">
-        <v>676.7441797778398</v>
+        <v>803.0473790748991</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6449,13 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F29" t="n">
-        <v>794.2588208963564</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G29" t="n">
         <v>380.2757138127629</v>
       </c>
       <c r="H29" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160707</v>
       </c>
       <c r="I29" t="n">
         <v>93.84834815160703</v>
@@ -6543,25 +6543,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="K30" t="n">
-        <v>93.84834815160703</v>
+        <v>424.3570907149658</v>
       </c>
       <c r="L30" t="n">
-        <v>584.5806809953584</v>
+        <v>424.3570907149658</v>
       </c>
       <c r="M30" t="n">
-        <v>1176.599035247486</v>
+        <v>1016.375444967094</v>
       </c>
       <c r="N30" t="n">
-        <v>1798.694998646823</v>
+        <v>1638.47140836643</v>
       </c>
       <c r="O30" t="n">
-        <v>2345.571473647017</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.812354695766</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R30" t="n">
         <v>2553.812354695766</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>562.9550599890988</v>
+        <v>560.8142640742427</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7680286442462</v>
+        <v>391.8780811463358</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6513892319105</v>
+        <v>241.7614417340001</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7382956495174</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="F31" t="n">
         <v>93.84834815160703</v>
@@ -6643,28 +6643,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R31" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S31" t="n">
-        <v>2246.242309074625</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T31" t="n">
-        <v>2026.563526789007</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U31" t="n">
-        <v>1737.487313103734</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V31" t="n">
-        <v>1482.802824897847</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W31" t="n">
-        <v>1193.385654860886</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X31" t="n">
-        <v>965.3961039628687</v>
+        <v>963.2553080480126</v>
       </c>
       <c r="Y31" t="n">
-        <v>744.6035248193385</v>
+        <v>742.4627289044824</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6686,13 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F32" t="n">
-        <v>794.2588208963564</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G32" t="n">
-        <v>380.2757138127628</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H32" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="I32" t="n">
         <v>93.84834815160703</v>
@@ -6725,7 +6725,7 @@
         <v>4692.417407580351</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T32" t="n">
         <v>4405.740996026519</v>
@@ -6783,19 +6783,19 @@
         <v>424.3570907149658</v>
       </c>
       <c r="L33" t="n">
-        <v>915.0894235587172</v>
+        <v>764.7727330321212</v>
       </c>
       <c r="M33" t="n">
-        <v>1507.107777810845</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="N33" t="n">
-        <v>1507.107777810845</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="O33" t="n">
-        <v>2053.984252811039</v>
+        <v>1903.667562284443</v>
       </c>
       <c r="P33" t="n">
-        <v>2473.567771237115</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.812354695766</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>495.0957149476001</v>
+        <v>782.0911747218001</v>
       </c>
       <c r="C34" t="n">
-        <v>495.0957149476001</v>
+        <v>613.1549917938933</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6513892319105</v>
+        <v>613.1549917938933</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7382956495174</v>
+        <v>465.2418982115001</v>
       </c>
       <c r="F34" t="n">
-        <v>93.84834815160703</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="G34" t="n">
-        <v>93.84834815160703</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H34" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I34" t="n">
         <v>93.84834815160703</v>
@@ -6901,7 +6901,7 @@
         <v>897.5367589213699</v>
       </c>
       <c r="Y34" t="n">
-        <v>676.7441797778398</v>
+        <v>897.5367589213699</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C35" t="n">
         <v>1949.298676890959</v>
@@ -6923,64 +6923,64 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F35" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G35" t="n">
-        <v>380.275713812763</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H35" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I35" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J35" t="n">
         <v>373.34422365072</v>
       </c>
       <c r="K35" t="n">
-        <v>842.9746074384018</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L35" t="n">
-        <v>1462.494387944176</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M35" t="n">
-        <v>2183.498949883214</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N35" t="n">
-        <v>2920.78392780032</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O35" t="n">
-        <v>3603.645964259458</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P35" t="n">
-        <v>4151.951912946806</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q35" t="n">
-        <v>4566.333620403614</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R35" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T35" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U35" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V35" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W35" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X35" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H36" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I36" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J36" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K36" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="L36" t="n">
-        <v>142.6767696327857</v>
+        <v>584.5806809953584</v>
       </c>
       <c r="M36" t="n">
-        <v>734.6951238849133</v>
+        <v>1176.599035247486</v>
       </c>
       <c r="N36" t="n">
-        <v>1356.791087284249</v>
+        <v>1321.464883050339</v>
       </c>
       <c r="O36" t="n">
-        <v>1903.667562284444</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P36" t="n">
-        <v>2323.25108071052</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R36" t="n">
         <v>2553.812354695766</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>495.0957149476001</v>
+        <v>676.7441797778398</v>
       </c>
       <c r="C37" t="n">
-        <v>326.1595320196932</v>
+        <v>676.7441797778398</v>
       </c>
       <c r="D37" t="n">
-        <v>326.1595320196932</v>
+        <v>676.7441797778398</v>
       </c>
       <c r="E37" t="n">
-        <v>326.1595320196932</v>
+        <v>549.8252074365081</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0625429770282</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="G37" t="n">
-        <v>93.84834815160704</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H37" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I37" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J37" t="n">
         <v>172.8304710411609</v>
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C38" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D38" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284207</v>
       </c>
       <c r="E38" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685963</v>
       </c>
       <c r="F38" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963555</v>
       </c>
       <c r="G38" t="n">
-        <v>380.275713812763</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H38" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I38" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J38" t="n">
         <v>373.34422365072</v>
       </c>
       <c r="K38" t="n">
-        <v>842.9746074384018</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L38" t="n">
-        <v>1462.494387944176</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M38" t="n">
-        <v>2234.298471234015</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N38" t="n">
-        <v>2971.583449151121</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O38" t="n">
-        <v>3654.445485610259</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P38" t="n">
-        <v>4202.751434297607</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q38" t="n">
-        <v>4566.333620403614</v>
+        <v>4515.534099052815</v>
       </c>
       <c r="R38" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T38" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U38" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V38" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W38" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X38" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="39">
@@ -7245,10 +7245,10 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H39" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I39" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J39" t="n">
         <v>241.496329903453</v>
@@ -7260,16 +7260,16 @@
         <v>1062.737405310563</v>
       </c>
       <c r="M39" t="n">
-        <v>1654.75575956269</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N39" t="n">
-        <v>1868.341358050533</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="O39" t="n">
-        <v>1868.341358050533</v>
+        <v>2098.90263203578</v>
       </c>
       <c r="P39" t="n">
-        <v>2287.924876476609</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="Q39" t="n">
         <v>2518.486150461856</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>555.8655840573317</v>
+        <v>676.7441797778398</v>
       </c>
       <c r="C40" t="n">
-        <v>555.8655840573317</v>
+        <v>676.7441797778398</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8655840573317</v>
+        <v>526.627540365504</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9524904749386</v>
+        <v>526.627540365504</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0625429770282</v>
+        <v>379.7375928675937</v>
       </c>
       <c r="G40" t="n">
-        <v>93.84834815160704</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H40" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I40" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J40" t="n">
         <v>172.8304710411609</v>
@@ -7363,19 +7363,19 @@
         <v>1958.704181747508</v>
       </c>
       <c r="U40" t="n">
-        <v>1730.397837171967</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V40" t="n">
-        <v>1475.71334896608</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W40" t="n">
-        <v>1186.296178929119</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X40" t="n">
-        <v>958.3066280311016</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y40" t="n">
-        <v>737.5140488875714</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C41" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D41" t="n">
         <v>1591.032978284208</v>
@@ -7397,64 +7397,64 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F41" t="n">
-        <v>794.2588208963564</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G41" t="n">
-        <v>380.275713812763</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H41" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160684</v>
       </c>
       <c r="I41" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J41" t="n">
         <v>373.34422365072</v>
       </c>
       <c r="K41" t="n">
-        <v>842.9746074384018</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L41" t="n">
-        <v>1462.494387944176</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M41" t="n">
-        <v>2183.498949883214</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N41" t="n">
-        <v>2920.78392780032</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O41" t="n">
-        <v>3603.645964259458</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P41" t="n">
-        <v>4151.951912946806</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q41" t="n">
-        <v>4566.333620403614</v>
+        <v>4515.534099052815</v>
       </c>
       <c r="R41" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T41" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U41" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V41" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W41" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X41" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H42" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I42" t="n">
-        <v>93.84834815160704</v>
+        <v>94.88738072612962</v>
       </c>
       <c r="J42" t="n">
-        <v>93.84834815160704</v>
+        <v>242.5353624779756</v>
       </c>
       <c r="K42" t="n">
-        <v>424.3570907149658</v>
+        <v>573.0441050413344</v>
       </c>
       <c r="L42" t="n">
-        <v>915.089423558717</v>
+        <v>1063.776437885086</v>
       </c>
       <c r="M42" t="n">
-        <v>1507.107777810845</v>
+        <v>1655.794792137213</v>
       </c>
       <c r="N42" t="n">
-        <v>2129.203741210181</v>
+        <v>1655.794792137213</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.812354695766</v>
+        <v>2202.671267137408</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.812354695766</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R42" t="n">
         <v>2553.812354695766</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>632.4560930369213</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C43" t="n">
-        <v>632.4560930369213</v>
+        <v>391.8780811463358</v>
       </c>
       <c r="D43" t="n">
-        <v>632.4560930369213</v>
+        <v>241.7614417340001</v>
       </c>
       <c r="E43" t="n">
-        <v>632.4560930369213</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="F43" t="n">
-        <v>485.566145539011</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G43" t="n">
-        <v>318.3519507135898</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H43" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I43" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J43" t="n">
         <v>172.8304710411609</v>
@@ -7591,28 +7591,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R43" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S43" t="n">
-        <v>2315.743342122447</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T43" t="n">
-        <v>2096.064559836829</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U43" t="n">
-        <v>1806.988346151556</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V43" t="n">
-        <v>1552.303857945669</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W43" t="n">
-        <v>1262.886687908708</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X43" t="n">
-        <v>1034.897137010691</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y43" t="n">
-        <v>814.104557867161</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7622,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C44" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D44" t="n">
         <v>1591.032978284208</v>
@@ -7634,34 +7634,34 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F44" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G44" t="n">
-        <v>380.275713812763</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H44" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160707</v>
       </c>
       <c r="I44" t="n">
         <v>93.84834815160704</v>
       </c>
       <c r="J44" t="n">
-        <v>424.1437450015209</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K44" t="n">
-        <v>893.7741287892027</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L44" t="n">
-        <v>1513.293909294977</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M44" t="n">
-        <v>2234.298471234015</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N44" t="n">
-        <v>2971.583449151121</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O44" t="n">
-        <v>3654.445485610259</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P44" t="n">
         <v>4202.751434297607</v>
@@ -7679,19 +7679,19 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U44" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V44" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W44" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X44" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="45">
@@ -7722,22 +7722,22 @@
         <v>93.84834815160704</v>
       </c>
       <c r="I45" t="n">
-        <v>93.84834815160704</v>
+        <v>94.88738072612963</v>
       </c>
       <c r="J45" t="n">
-        <v>241.496329903453</v>
+        <v>242.5353624779756</v>
       </c>
       <c r="K45" t="n">
-        <v>572.0050724668117</v>
+        <v>573.0441050413344</v>
       </c>
       <c r="L45" t="n">
-        <v>1062.737405310563</v>
+        <v>1063.776437885086</v>
       </c>
       <c r="M45" t="n">
-        <v>1654.75575956269</v>
+        <v>1321.464883050339</v>
       </c>
       <c r="N45" t="n">
-        <v>1868.341358050533</v>
+        <v>1321.464883050339</v>
       </c>
       <c r="O45" t="n">
         <v>1868.341358050533</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>495.0957149476001</v>
+        <v>642.4220035901732</v>
       </c>
       <c r="C46" t="n">
-        <v>402.9352599385978</v>
+        <v>473.4858206622663</v>
       </c>
       <c r="D46" t="n">
-        <v>402.9352599385978</v>
+        <v>323.3691812499305</v>
       </c>
       <c r="E46" t="n">
-        <v>402.9352599385978</v>
+        <v>323.3691812499305</v>
       </c>
       <c r="F46" t="n">
-        <v>402.9352599385978</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="G46" t="n">
-        <v>235.7210651131766</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="H46" t="n">
-        <v>93.84834815160704</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I46" t="n">
         <v>93.84834815160704</v>
       </c>
       <c r="J46" t="n">
-        <v>172.8304710411609</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K46" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L46" t="n">
         <v>820.2210160948589</v>
@@ -7849,7 +7849,7 @@
         <v>897.5367589213699</v>
       </c>
       <c r="Y46" t="n">
-        <v>676.7441797778398</v>
+        <v>824.0704684204129</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>327.4218609627882</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8216,7 +8216,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8292,19 +8292,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>327.4218609627882</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8538,10 +8538,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516226</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>51.31264782909045</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8705,7 +8705,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>51.31264782909057</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>51.31264782909045</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>51.31264782909034</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9176,10 +9176,10 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>51.31264782908966</v>
       </c>
       <c r="P17" t="n">
-        <v>51.31264782908966</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>51.31264782908966</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>51.312647829089</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>51.31264782909034</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>51.31264782908991</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>51.31264782909136</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9887,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>51.31264782908966</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>51.31264782908988</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10604,7 +10604,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>51.31264782909176</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>51.31264782909193</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>51.312647829089</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11078,10 +11078,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>51.31264782909176</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>51.312647829089</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>51.31264782909182</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11312,7 +11312,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>51.31264782909057</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>138.7044571535268</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>43.23559055967969</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>135.1401768409653</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
-        <v>139.1811993037091</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>65.06136363537625</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
-        <v>76.00797063971555</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
         <v>81.80457674440902</v>
@@ -24124,22 +24124,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>25.68337324539281</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>8.827219048631576</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>143.6715153845041</v>
       </c>
       <c r="C25" t="n">
-        <v>61.86693864009517</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24382,7 +24382,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I25" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>54.18219756401896</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I28" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>125.0401673040887</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>143.3016600672238</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,7 +24847,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5420528771669</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>65.06136363537621</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>65.5408518243632</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>43.23559055967969</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H34" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>20.78418002865078</v>
       </c>
       <c r="F37" t="n">
-        <v>80.97502887069292</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>22.96569040029405</v>
       </c>
       <c r="H40" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>60.16217041863433</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>65.06136363537624</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>68.80602271734422</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>76.00797063971561</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I46" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>145.8530257561473</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>649618.7185000009</v>
+        <v>649618.7185000008</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>649618.7185000008</v>
+        <v>649618.7185000009</v>
       </c>
     </row>
     <row r="9">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>649618.7185000008</v>
+        <v>649618.7185000009</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>779989.681371069</v>
+      </c>
+      <c r="C2" t="n">
+        <v>779989.6813710689</v>
+      </c>
+      <c r="D2" t="n">
         <v>779989.6813710688</v>
       </c>
-      <c r="C2" t="n">
-        <v>779989.6813710688</v>
-      </c>
-      <c r="D2" t="n">
-        <v>779989.6813710689</v>
-      </c>
       <c r="E2" t="n">
-        <v>766348.8282626318</v>
+        <v>766348.8282626314</v>
       </c>
       <c r="F2" t="n">
-        <v>766348.8282626315</v>
+        <v>766348.8282626317</v>
       </c>
       <c r="G2" t="n">
-        <v>766348.8282626312</v>
+        <v>766348.8282626313</v>
       </c>
       <c r="H2" t="n">
-        <v>766348.8282626315</v>
+        <v>766348.8282626314</v>
       </c>
       <c r="I2" t="n">
         <v>766348.8282626315</v>
       </c>
       <c r="J2" t="n">
-        <v>766348.8282626313</v>
+        <v>766348.8282626312</v>
       </c>
       <c r="K2" t="n">
         <v>766348.8282626314</v>
       </c>
       <c r="L2" t="n">
-        <v>766348.8282626315</v>
+        <v>766348.8282626317</v>
       </c>
       <c r="M2" t="n">
         <v>766348.8282626314</v>
       </c>
       <c r="N2" t="n">
-        <v>766348.8282626317</v>
+        <v>766348.8282626314</v>
       </c>
       <c r="O2" t="n">
-        <v>766348.8282626317</v>
+        <v>766348.8282626315</v>
       </c>
       <c r="P2" t="n">
-        <v>766348.8282626313</v>
+        <v>766348.8282626314</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>936509.6654545125</v>
+        <v>936509.6654545122</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124307.2113901371</v>
+        <v>124307.2113901372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,22 +26424,22 @@
         <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
-        <v>5069.915760662912</v>
+        <v>5069.915760662911</v>
       </c>
       <c r="F4" t="n">
-        <v>5069.91576066288</v>
+        <v>5069.915760662971</v>
       </c>
       <c r="G4" t="n">
-        <v>5069.915760662944</v>
+        <v>5069.915760662947</v>
       </c>
       <c r="H4" t="n">
-        <v>5069.915760662893</v>
+        <v>5069.915760662901</v>
       </c>
       <c r="I4" t="n">
-        <v>5069.915760662903</v>
+        <v>5069.915760662909</v>
       </c>
       <c r="J4" t="n">
-        <v>5069.915760662936</v>
+        <v>5069.915760662921</v>
       </c>
       <c r="K4" t="n">
         <v>5069.915760662892</v>
@@ -26448,16 +26448,16 @@
         <v>5069.915760662893</v>
       </c>
       <c r="M4" t="n">
-        <v>5069.915760662926</v>
+        <v>5069.915760662956</v>
       </c>
       <c r="N4" t="n">
-        <v>5069.915760662939</v>
+        <v>5069.91576066294</v>
       </c>
       <c r="O4" t="n">
-        <v>5069.915760662934</v>
+        <v>5069.915760662892</v>
       </c>
       <c r="P4" t="n">
-        <v>5069.915760662927</v>
+        <v>5069.915760662912</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="F5" t="n">
         <v>100930.0394572385</v>
@@ -26488,10 +26488,10 @@
         <v>100930.0394572385</v>
       </c>
       <c r="I5" t="n">
+        <v>100930.0394572385</v>
+      </c>
+      <c r="J5" t="n">
         <v>100930.0394572386</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100930.0394572385</v>
       </c>
       <c r="K5" t="n">
         <v>100930.0394572385</v>
@@ -26500,13 +26500,13 @@
         <v>100930.0394572385</v>
       </c>
       <c r="M5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="N5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="O5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="P5" t="n">
         <v>100930.0394572386</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-85043.87229931491</v>
+        <v>-85043.87229931456</v>
       </c>
       <c r="C6" t="n">
         <v>504924.0069152297</v>
@@ -26528,40 +26528,40 @@
         <v>504924.0069152297</v>
       </c>
       <c r="E6" t="n">
-        <v>-276160.7924097821</v>
+        <v>-276196.6893916465</v>
       </c>
       <c r="F6" t="n">
-        <v>660348.8730447302</v>
+        <v>660312.9760628658</v>
       </c>
       <c r="G6" t="n">
-        <v>660348.8730447297</v>
+        <v>660312.9760628655</v>
       </c>
       <c r="H6" t="n">
-        <v>660348.8730447302</v>
+        <v>660312.9760628657</v>
       </c>
       <c r="I6" t="n">
-        <v>660348.8730447302</v>
+        <v>660312.9760628658</v>
       </c>
       <c r="J6" t="n">
-        <v>483925.6538521369</v>
+        <v>483889.7568702725</v>
       </c>
       <c r="K6" t="n">
-        <v>660348.87304473</v>
+        <v>660312.9760628657</v>
       </c>
       <c r="L6" t="n">
-        <v>660348.8730447302</v>
+        <v>660312.9760628659</v>
       </c>
       <c r="M6" t="n">
-        <v>536041.661654593</v>
+        <v>536005.7646727284</v>
       </c>
       <c r="N6" t="n">
-        <v>660348.8730447302</v>
+        <v>660312.9760628656</v>
       </c>
       <c r="O6" t="n">
-        <v>660348.8730447302</v>
+        <v>660312.9760628658</v>
       </c>
       <c r="P6" t="n">
-        <v>660348.8730447299</v>
+        <v>660312.9760628657</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170867</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1358.041048716386</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>980.2973844992993</v>
+        <v>980.2973844992991</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.8170791405324</v>
+        <v>498.8170791405322</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.8170791405327</v>
+        <v>498.8170791405322</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.8170791405324</v>
+        <v>498.8170791405322</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,19 +27385,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>324.4813743340608</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>56.5240607276603</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>56.25950038248513</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>96.92615468724688</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>226.968995871239</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>77.80144310073501</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,25 +27777,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>96.50703242634964</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>162.0888852438905</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,7 +27831,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>330.3816442374523</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>98.95375469339439</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,28 +28011,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>107.5829646831825</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>69.58249272688994</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="15">
@@ -28576,10 +28576,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="H17" t="n">
-        <v>9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31835,10 +31835,10 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K12" t="n">
         <v>471.6886536848224</v>
@@ -31853,13 +31853,13 @@
         <v>759.7214730927639</v>
       </c>
       <c r="O12" t="n">
-        <v>571.4938338238233</v>
+        <v>188.4147547211814</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32075,13 +32075,13 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
-        <v>348.1857632660254</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745725</v>
+        <v>271.6268178754087</v>
       </c>
       <c r="M15" t="n">
         <v>740.1323715504302</v>
@@ -32093,7 +32093,7 @@
         <v>694.9967242426205</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32315,16 +32315,16 @@
         <v>275.9770021735818</v>
       </c>
       <c r="K18" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>634.2436048745725</v>
+        <v>555.4540873512036</v>
       </c>
       <c r="M18" t="n">
         <v>740.1323715504302</v>
       </c>
       <c r="N18" t="n">
-        <v>615.6579511813127</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O18" t="n">
         <v>142.5962444444444</v>
@@ -32333,10 +32333,10 @@
         <v>557.7961431982454</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S18" t="n">
         <v>54.25758340862161</v>
@@ -32546,10 +32546,10 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>272.1172380084142</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
@@ -32561,19 +32561,19 @@
         <v>740.1323715504302</v>
       </c>
       <c r="N21" t="n">
-        <v>759.7214730927639</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>694.9967242426205</v>
       </c>
       <c r="P21" t="n">
-        <v>344.3187317059965</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S21" t="n">
         <v>54.25758340862161</v>
@@ -32783,10 +32783,10 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J24" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>471.6886536848224</v>
@@ -32795,22 +32795,22 @@
         <v>634.2436048745725</v>
       </c>
       <c r="M24" t="n">
-        <v>740.1323715504302</v>
+        <v>551.5647681817143</v>
       </c>
       <c r="N24" t="n">
-        <v>759.7214730927639</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>422.3544583169084</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S24" t="n">
         <v>54.25758340862161</v>
@@ -33020,13 +33020,13 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J27" t="n">
         <v>275.9770021735818</v>
       </c>
       <c r="K27" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>634.2436048745725</v>
@@ -33038,16 +33038,16 @@
         <v>759.7214730927639</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>486.5789348519376</v>
       </c>
       <c r="P27" t="n">
-        <v>180.8424455441202</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>372.8719498286953</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S27" t="n">
         <v>54.25758340862161</v>
@@ -33263,10 +33263,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L30" t="n">
-        <v>634.2436048745725</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>740.1323715504302</v>
@@ -33275,16 +33275,16 @@
         <v>759.7214730927639</v>
       </c>
       <c r="O30" t="n">
-        <v>694.9967242426205</v>
+        <v>374.7881128122254</v>
       </c>
       <c r="P30" t="n">
-        <v>344.3187317059965</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S30" t="n">
         <v>54.25758340862161</v>
@@ -33503,7 +33503,7 @@
         <v>471.6886536848224</v>
       </c>
       <c r="L33" t="n">
-        <v>634.2436048745725</v>
+        <v>482.408563938617</v>
       </c>
       <c r="M33" t="n">
         <v>740.1323715504302</v>
@@ -33518,7 +33518,7 @@
         <v>557.7961431982454</v>
       </c>
       <c r="Q33" t="n">
-        <v>221.0369088927397</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33646,46 +33646,46 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H35" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K35" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L35" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M35" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N35" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O35" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P35" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q35" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R35" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S35" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T35" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U35" t="n">
         <v>0.436756920190194</v>
@@ -33728,7 +33728,7 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H36" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33740,31 +33740,31 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>187.8760176396507</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M36" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N36" t="n">
-        <v>759.7214730927637</v>
+        <v>277.6708512781339</v>
       </c>
       <c r="O36" t="n">
-        <v>694.9967242426204</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P36" t="n">
-        <v>557.7961431982453</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q36" t="n">
-        <v>372.8719498286952</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S36" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T36" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U36" t="n">
         <v>0.1921756201013754</v>
@@ -33810,7 +33810,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I37" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J37" t="n">
         <v>173.1391022273333</v>
@@ -33819,16 +33819,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L37" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M37" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N37" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O37" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P37" t="n">
         <v>296.1865264282424</v>
@@ -33840,7 +33840,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S37" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T37" t="n">
         <v>10.46359496551969</v>
@@ -33883,46 +33883,46 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H38" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K38" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L38" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M38" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N38" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O38" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P38" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q38" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R38" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S38" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T38" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U38" t="n">
         <v>0.436756920190194</v>
@@ -33965,7 +33965,7 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H39" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33977,31 +33977,31 @@
         <v>471.6886536848224</v>
       </c>
       <c r="L39" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M39" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N39" t="n">
-        <v>347.0847408589324</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>591.2294489627166</v>
       </c>
       <c r="P39" t="n">
-        <v>557.7961431982453</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q39" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>181.3625385436713</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S39" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T39" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U39" t="n">
         <v>0.1921756201013754</v>
@@ -34047,7 +34047,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I40" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J40" t="n">
         <v>173.1391022273333</v>
@@ -34056,16 +34056,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L40" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M40" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N40" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O40" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P40" t="n">
         <v>296.1865264282424</v>
@@ -34077,7 +34077,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S40" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T40" t="n">
         <v>10.46359496551969</v>
@@ -34120,46 +34120,46 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H41" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K41" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L41" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M41" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N41" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O41" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P41" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q41" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R41" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S41" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T41" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U41" t="n">
         <v>0.436756920190194</v>
@@ -34202,43 +34202,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H42" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K42" t="n">
         <v>471.6886536848224</v>
       </c>
       <c r="L42" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M42" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N42" t="n">
-        <v>759.7214730927637</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>571.4938338238237</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>220.0891643226145</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S42" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T42" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U42" t="n">
         <v>0.1921756201013754</v>
@@ -34284,7 +34284,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I43" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J43" t="n">
         <v>173.1391022273333</v>
@@ -34293,16 +34293,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L43" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M43" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N43" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O43" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P43" t="n">
         <v>296.1865264282424</v>
@@ -34314,7 +34314,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S43" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T43" t="n">
         <v>10.46359496551969</v>
@@ -34357,46 +34357,46 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H44" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K44" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L44" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M44" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N44" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O44" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P44" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q44" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R44" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S44" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T44" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U44" t="n">
         <v>0.436756920190194</v>
@@ -34439,10 +34439,10 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H45" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J45" t="n">
         <v>275.9770021735818</v>
@@ -34451,31 +34451,31 @@
         <v>471.6886536848224</v>
       </c>
       <c r="L45" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M45" t="n">
-        <v>740.1323715504301</v>
+        <v>402.4253926747993</v>
       </c>
       <c r="N45" t="n">
-        <v>347.0847408589324</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P45" t="n">
-        <v>557.7961431982453</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q45" t="n">
-        <v>372.8719498286952</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R45" t="n">
-        <v>181.3625385436713</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S45" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T45" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U45" t="n">
         <v>0.1921756201013754</v>
@@ -34521,7 +34521,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I46" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J46" t="n">
         <v>173.1391022273333</v>
@@ -34530,16 +34530,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L46" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M46" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N46" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O46" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P46" t="n">
         <v>296.1865264282424</v>
@@ -34551,7 +34551,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S46" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T46" t="n">
         <v>10.46359496551969</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>365.2844632307148</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343417</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>365.2844632307148</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,16 +35258,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>282.3190661607202</v>
+        <v>333.6317139898107</v>
       </c>
       <c r="K11" t="n">
         <v>474.3741250380626</v>
@@ -35425,7 +35425,7 @@
         <v>689.7596327870085</v>
       </c>
       <c r="P11" t="n">
-        <v>605.1570404425736</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q11" t="n">
         <v>367.2547334404112</v>
@@ -35483,10 +35483,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K12" t="n">
         <v>333.8472147104634</v>
@@ -35501,13 +35501,13 @@
         <v>628.3797610094306</v>
       </c>
       <c r="O12" t="n">
-        <v>428.8975893793788</v>
+        <v>45.81851027673699</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>333.6317139898107</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K14" t="n">
         <v>474.3741250380626</v>
@@ -35653,7 +35653,7 @@
         <v>625.7775560664393</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020583</v>
+        <v>779.6000841311486</v>
       </c>
       <c r="N14" t="n">
         <v>744.73230092637</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
-        <v>210.3443242916665</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946983</v>
+        <v>133.0724380955346</v>
       </c>
       <c r="M15" t="n">
         <v>597.9983376284119</v>
@@ -35741,7 +35741,7 @@
         <v>552.4004797981761</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35896,10 +35896,10 @@
         <v>744.73230092637</v>
       </c>
       <c r="O17" t="n">
-        <v>689.7596327870085</v>
+        <v>741.0722806160982</v>
       </c>
       <c r="P17" t="n">
-        <v>605.1570404425727</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q17" t="n">
         <v>367.2547334404112</v>
@@ -35963,16 +35963,16 @@
         <v>149.1393755069151</v>
       </c>
       <c r="K18" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>495.6892250946983</v>
+        <v>416.8997075713294</v>
       </c>
       <c r="M18" t="n">
         <v>597.9983376284119</v>
       </c>
       <c r="N18" t="n">
-        <v>484.3162390979793</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35981,10 +35981,10 @@
         <v>423.8217357839152</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36133,7 +36133,7 @@
         <v>744.73230092637</v>
       </c>
       <c r="O20" t="n">
-        <v>689.7596327870085</v>
+        <v>741.0722806160982</v>
       </c>
       <c r="P20" t="n">
         <v>553.844392613483</v>
@@ -36142,7 +36142,7 @@
         <v>367.2547334404112</v>
       </c>
       <c r="R20" t="n">
-        <v>178.6700086136732</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,10 +36194,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>145.2796113417475</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36209,19 +36209,19 @@
         <v>597.9983376284119</v>
       </c>
       <c r="N21" t="n">
-        <v>628.3797610094306</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>552.4004797981761</v>
       </c>
       <c r="P21" t="n">
-        <v>210.3443242916662</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>625.7775560664393</v>
       </c>
       <c r="M23" t="n">
-        <v>728.2874363020583</v>
+        <v>779.6000841311486</v>
       </c>
       <c r="N23" t="n">
         <v>744.73230092637</v>
@@ -36379,7 +36379,7 @@
         <v>367.2547334404112</v>
       </c>
       <c r="R23" t="n">
-        <v>178.6700086136741</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,10 +36431,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J24" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>333.8472147104634</v>
@@ -36443,22 +36443,22 @@
         <v>495.6892250946983</v>
       </c>
       <c r="M24" t="n">
-        <v>597.9983376284119</v>
+        <v>409.430734259696</v>
       </c>
       <c r="N24" t="n">
-        <v>628.3797610094306</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>279.758213872464</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>282.3190661607202</v>
+        <v>333.6317139898116</v>
       </c>
       <c r="K26" t="n">
         <v>474.3741250380626</v>
@@ -36607,7 +36607,7 @@
         <v>744.73230092637</v>
       </c>
       <c r="O26" t="n">
-        <v>741.0722806160982</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P26" t="n">
         <v>553.844392613483</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J27" t="n">
         <v>149.1393755069151</v>
       </c>
       <c r="K27" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>495.6892250946983</v>
@@ -36686,16 +36686,16 @@
         <v>628.3797610094306</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>343.9826904074931</v>
       </c>
       <c r="P27" t="n">
-        <v>46.86803812978999</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>232.8901757426738</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36911,10 +36911,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L30" t="n">
-        <v>495.6892250946983</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>597.9983376284119</v>
@@ -36923,16 +36923,16 @@
         <v>628.3797610094306</v>
       </c>
       <c r="O30" t="n">
-        <v>552.4004797981761</v>
+        <v>232.191868367781</v>
       </c>
       <c r="P30" t="n">
-        <v>210.3443242916662</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37151,7 +37151,7 @@
         <v>333.8472147104634</v>
       </c>
       <c r="L33" t="n">
-        <v>495.6892250946983</v>
+        <v>343.8541841587428</v>
       </c>
       <c r="M33" t="n">
         <v>597.9983376284119</v>
@@ -37166,7 +37166,7 @@
         <v>423.8217357839152</v>
       </c>
       <c r="Q33" t="n">
-        <v>81.05513480671823</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K35" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L35" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M35" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N35" t="n">
-        <v>744.7323009263698</v>
+        <v>796.0449487554599</v>
       </c>
       <c r="O35" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P35" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q35" t="n">
-        <v>418.5673812695028</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R35" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>49.32163785977647</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M36" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N36" t="n">
-        <v>628.3797610094305</v>
+        <v>146.3291391948006</v>
       </c>
       <c r="O36" t="n">
-        <v>552.400479798176</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P36" t="n">
-        <v>423.8217357839151</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q36" t="n">
-        <v>232.8901757426737</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K37" t="n">
         <v>262.2512393642057</v>
@@ -37470,19 +37470,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M37" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N37" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O37" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P37" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q37" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K38" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L38" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M38" t="n">
-        <v>779.60008413115</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N38" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O38" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P38" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q38" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R38" t="n">
-        <v>127.3573607845841</v>
+        <v>178.6700086136732</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,25 +37625,25 @@
         <v>333.8472147104634</v>
       </c>
       <c r="L39" t="n">
-        <v>495.6892250946982</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M39" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N39" t="n">
-        <v>215.7430287755991</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>448.6332045182721</v>
       </c>
       <c r="P39" t="n">
-        <v>423.8217357839151</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q39" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>35.6830345797074</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K40" t="n">
         <v>262.2512393642057</v>
@@ -37707,19 +37707,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M40" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N40" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O40" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P40" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q40" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K41" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L41" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M41" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N41" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O41" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P41" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q41" t="n">
-        <v>418.5673812695028</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R41" t="n">
-        <v>127.3573607845841</v>
+        <v>178.6700086136732</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K42" t="n">
         <v>333.8472147104634</v>
       </c>
       <c r="L42" t="n">
-        <v>495.6892250946982</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M42" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N42" t="n">
-        <v>628.3797610094305</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>428.8975893793793</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>86.11475690828422</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K43" t="n">
         <v>262.2512393642057</v>
@@ -37944,19 +37944,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M43" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N43" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O43" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P43" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q43" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>333.6317139898119</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K44" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L44" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M44" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N44" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O44" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P44" t="n">
-        <v>553.8443926134828</v>
+        <v>605.1570404425736</v>
       </c>
       <c r="Q44" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R44" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J45" t="n">
         <v>149.1393755069151</v>
@@ -38099,25 +38099,25 @@
         <v>333.8472147104634</v>
       </c>
       <c r="L45" t="n">
-        <v>495.6892250946982</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M45" t="n">
-        <v>597.9983376284117</v>
+        <v>260.291358752781</v>
       </c>
       <c r="N45" t="n">
-        <v>215.7430287755991</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P45" t="n">
-        <v>423.8217357839151</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q45" t="n">
-        <v>232.8901757426737</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R45" t="n">
-        <v>35.6830345797074</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K46" t="n">
         <v>262.2512393642057</v>
@@ -38181,19 +38181,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M46" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N46" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O46" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P46" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q46" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
